--- a/GradeReport.xlsx
+++ b/GradeReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\GradeReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1303103-153A-4799-8816-4452C6F09ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="3945" windowWidth="27555" windowHeight="14745" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="3945" windowWidth="27555" windowHeight="14745" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Матем</t>
   </si>
@@ -222,12 +221,18 @@
   </si>
   <si>
     <t>Не для всех выставленна</t>
+  </si>
+  <si>
+    <t>Закреплена на семестр</t>
+  </si>
+  <si>
+    <t>Закреплена на все где есть этот предмет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AD0C63-EACD-422D-A5B2-557000FA6CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -718,11 +726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA23595-18FE-4CF1-8811-4A122008E4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,6 +908,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
@@ -948,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47476711-D290-499B-AB26-C66884B60C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GradeReport.xlsx
+++ b/GradeReport.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист5" sheetId="6" r:id="rId1"/>
     <sheet name="Типы оценок" sheetId="7" r:id="rId2"/>
     <sheet name="Лист1" sheetId="8" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>Матем</t>
   </si>
@@ -154,27 +155,6 @@
     <t>Отображается только в том случае если период является последним</t>
   </si>
   <si>
-    <t>Характеристика типа оценки</t>
-  </si>
-  <si>
-    <t>Одна или несколько</t>
-  </si>
-  <si>
-    <t>Видна или нет</t>
-  </si>
-  <si>
-    <t>Доступны ли спец обозначения если да то перечень</t>
-  </si>
-  <si>
-    <t>При включении периода проверять</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>При отключении периода проверять</t>
-  </si>
-  <si>
     <t>0 +</t>
   </si>
   <si>
@@ -223,22 +203,70 @@
     <t>Не для всех выставленна</t>
   </si>
   <si>
-    <t>Закреплена на семестр</t>
-  </si>
-  <si>
-    <t>Закреплена на все где есть этот предмет</t>
+    <t>В разные ряды</t>
+  </si>
+  <si>
+    <t>В один ряд</t>
+  </si>
+  <si>
+    <t>Конкретный предмет</t>
+  </si>
+  <si>
+    <t>Конкретный семестр</t>
+  </si>
+  <si>
+    <t>Итоговая</t>
+  </si>
+  <si>
+    <t>Уч 1</t>
+  </si>
+  <si>
+    <t>Уч 2</t>
+  </si>
+  <si>
+    <t>1 2 5</t>
+  </si>
+  <si>
+    <t>Конкретный период</t>
+  </si>
+  <si>
+    <t>Все семестры</t>
+  </si>
+  <si>
+    <t>Расчитывается автомитически</t>
+  </si>
+  <si>
+    <t>Закреплена среди семестров для данного предмета</t>
+  </si>
+  <si>
+    <t>Закреплена на 1 семестр</t>
+  </si>
+  <si>
+    <t>Прикреплена к периоду по индексу</t>
+  </si>
+  <si>
+    <t>ОБЫЧ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,23 +758,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="2" max="6" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -766,22 +799,22 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,22 +822,22 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,7 +932,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
@@ -908,55 +941,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,7 +987,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,40 +1034,40 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1056,25 +1075,25 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,13 +1106,13 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,4 +1124,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>